--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value461.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value461.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.270844116752782</v>
+        <v>1.248223543167114</v>
       </c>
       <c r="B1">
-        <v>1.885775932968072</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>3.874179640327378</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.190559226572292</v>
+        <v>1.598125696182251</v>
       </c>
       <c r="E1">
-        <v>0.4798687121866325</v>
+        <v>1.080134749412537</v>
       </c>
     </row>
   </sheetData>
